--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翻转字符串的第i位到第j位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,10 @@
   </si>
   <si>
     <t>int length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转字符串的第i位到第j位，成功时返回true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,67 +281,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +651,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -663,185 +663,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="A17" s="22"/>
     </row>
     <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="22"/>
     </row>
     <row r="25" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="22"/>
     </row>
     <row r="28" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="22"/>
     </row>
     <row r="30" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
+      <c r="A31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,15 +92,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool reverse(int start, int end);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>翻转字符串的第i位到第j位，成功时返回true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool allPermutation();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool nextPermutation(char b[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的字典序的下一个排列放入b中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典序下一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool mtReverse(int start, int end);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示字符串对应的从小到大的字典序全排列，从s[]开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +675,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -687,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -708,21 +732,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>显示字符串对应的从小到大的字典序全排列，从s[]开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool isPalindrome();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断本字符是否为回文串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,9 +775,15 @@
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>判断本字符是否为回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool mtManacher(char m[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的最长回文子串放入m[]中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +699,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -788,9 +800,15 @@
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>将本字符串的最长回文子串放入m[]中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool moveChar(char b[], char c);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串中的字符c全部移动到最左边，然后放入b[]中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复字符压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool condenseDuplicate();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的重复部分压缩并显示，比如"aaabbc"-&gt;"3a2bc"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -320,11 +344,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,9 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +433,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +748,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -728,7 +777,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -737,7 +786,7 @@
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -745,7 +794,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
@@ -760,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
@@ -773,7 +822,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -786,7 +835,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
@@ -799,7 +848,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
@@ -812,108 +861,120 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/myTools-FunctionList.xlsx
+++ b/myTools-FunctionList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,63 +32,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void show();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示类中定义的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool stringContain(char b[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断本字符串的各个字符是否都包含于字符串b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool set(char s[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置类中的char * 属性为s[], 设置成功时返回true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char s[MAX_LENGTH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转字符串的第i位到第j位，成功时返回true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool allPermutation();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool nextPermutation(char b[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的字典序的下一个排列放入b中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典序下一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool mtReverse(int start, int end);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示字符串对应的从小到大的字典序全排列，从s[]开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool isPalindrome();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断本字符是否为回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool mtManacher(char m[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的最长回文子串放入m[]中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool moveChar(char b[], char c);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串中的字符c全部移动到最左边，然后放入b[]中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复字符压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool condenseDuplicate();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本字符串的重复部分压缩并显示，比如"aaabbc"-&gt;"3a2bc"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(续)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void show();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示类中定义的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool stringContain(char b[]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断本字符串的各个字符是否都包含于字符串b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool set(char s[]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置类中的char * 属性为s[], 设置成功时返回true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char s[MAX_LENGTH]</t>
+    <t>删除指定字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool deleteChar(char b[], char model[]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本字符串中所有被包含在model[]中的字符，然后放入b[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void show;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置数组，成功时返回true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a[MAX_LENGTH]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,83 +212,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翻转字符串的第i位到第j位，成功时返回true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool allPermutation();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool nextPermutation(char b[]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将本字符串的字典序的下一个排列放入b中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典序下一位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool mtReverse(int start, int end);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示字符串对应的从小到大的字典序全排列，从s[]开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回文判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool isPalindrome();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断本字符是否为回文串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长回文子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool mtManacher(char m[]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将本字符串的最长回文子串放入m[]中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool moveChar(char b[], char c);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将本字符串中的字符c全部移动到最左边，然后放入b[]中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复字符压缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool condenseDuplicate();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将本字符串的重复部分压缩并显示，比如"aaabbc"-&gt;"3a2bc"</t>
+    <t>bool set(int *, int len);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连续子数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将和最大的连续子数组放入b[]中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool maxSum(int b[], int b_length)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +255,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +286,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -366,11 +436,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,6 +499,60 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,13 +562,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -767,214 +897,324 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="40"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-    </row>
-    <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-    </row>
-    <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-    </row>
-    <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-    </row>
-    <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-    </row>
-    <row r="21" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-    </row>
-    <row r="22" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-    </row>
-    <row r="24" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-    </row>
-    <row r="25" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-    </row>
-    <row r="26" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-    </row>
-    <row r="27" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-    </row>
-    <row r="28" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-    </row>
-    <row r="29" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-    </row>
-    <row r="30" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-    </row>
-    <row r="31" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
+      <c r="B22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="39"/>
+      <c r="B23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="39"/>
+      <c r="B24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="39"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="39"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="39"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="39"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="39"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="39"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
